--- a/biology/Zoologie/Daginesticus/Daginesticus.xlsx
+++ b/biology/Zoologie/Daginesticus/Daginesticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daginesticus est un genre d'araignées aranéomorphes de la famille des Nesticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daginesticus est un genre d'araignées aranéomorphes de la famille des Nesticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Russie au Daghestan et en Géorgie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Russie au Daghestan et en Géorgie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 01/04/2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 01/04/2022) :
 Daginesticus dzhamirzoevi Fomichev, Ballarin &amp; Marusik, 2022
 Daginesticus mamajevae (Marusik, 1987)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Fomichev, Ballarin et Marusik en 2022 dans les Nesticidae.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fomichev, Ballarin &amp; Marusik, 2022 : « A new genus of the family Nesticidae (Arachnida: Aranei) from the Caucasus. » Arthropoda Selecta, vol. 31, no 1, p. 99-110 (texte intégral).</t>
         </is>
